--- a/qa_dataset/1. ключ, памят.xlsx
+++ b/qa_dataset/1. ключ, памят.xlsx
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2699,7 +2699,7 @@
         <v>177</v>
       </c>
       <c r="B123">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="72">
